--- a/state_exam_requirements.xlsx
+++ b/state_exam_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanmcbride/eclipse-workspace/CS602/nasba_webscrape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE220BA9-ED85-6242-8101-D423E91EF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640B663E-7D94-3647-87AF-2B96F6215A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,30 +192,6 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eligibility for Examination As a first-time applicant, you must: Be a resident of Puerto Rico or have a place of business in Puerto Rico. Please note: Initial and re-examination candidates must meet the residency requirement; Be at least 21 years of age at the time of certification; Meet education requirements indicated below: If you completed your education on or after January 1, 2000, you must meet the following education requirement: Earned a baccalaureate degree or higher Completed 150 semester (225 quarter) hours of general college level education Completed 32 semester (48 quarter) hours in accounting subjects Completed 32 semester (48 quarter) hours in accounting and general business such as business law, information systems, economics and finance Earned a minimum 2.0 GPA If you are in your final semester or quarter for completing your baccalaureate degree and 150 semester hours of general education, you can qualify for the examination provided you have completed 32 semester (48 quarter) hours in accounting with a minimum 3.0 GPA prior to submitting your application. You will not be eligible to be licensed until you have completed the full education requirement. If your education is in progress when you submit your examination application, you must submit an official transcript and this Certificate of Enrollment . Once your education has been completed, you will be required to submit an additional official transcript showing all courses and degree(s) as complete. If you completed your education on or before December 31, 1999, you may qualify by one of the following: Earned a baccalaureate degree in Business Administration with a major in accounting from a college or university approved by the Board; OR Earned a baccalaureate degree from a college or university recognized by the Board and completed at least 58 semester (87 quarter) hours in business subjects, of which 32 semester (48 quarter) hours must be in accounting; OR Have a baccalaureate degree from a college or university recognized by the Board and, in the absence of having completed the required number of credit hours in business subjects, provide evidence of completing eight years of public accounting experience. (In its discretion, the Board may substitute two years of accounting experience in the private or government sector or two years of teaching experience at the college or university level for one year of public accounting experience.) All educational requirements must be met at the time of application. All educational transcript(s) and/or international evaluations are required to be submitted to CPA Examination Services directly from the academic institution(s). Experience Requirements If you are applying on the basis of experience, you must arrange to have official baccalaureate degree transcripts submitted directly to CPA Examination Services at the time of application. In addition, you must submit a written request with experience information directly to the PR State Board of Accountancy for review and approval. Submit requests to: Junta de Contabilidad P.O. Box 9023271 San Juan, PR 00902-3271. Transcripts If you have completed all educational requirements at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Your official transcript(s) must be submitted directly from the institution (s). Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you are applying based on experience, you must: Submit to CPA Examination Services the official baccalaureate degree transcripts. The official transcript must be received directly from the academic institution to CPA Examination Services. Submit a written request with experience information directly to the PR State Board of Accountancy for review and approval: Junta de Contabilidad P.O. Box 9023271, San Juan, PR 00902-3271. Please note: If you earned a baccalaureate degree prior to December 31, 1999, you may apply under this option. Photocopies are not acceptable. If you have international education credentials, you must: Have your credentials evaluated by NASBA International Evaluation Services Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Course Requirements Courses earned at a regionally accredited community college or two-year degree granting institution are acceptable. Correspondence, online courses and CLEP credit are acceptable when you receive credit for the courses at a regionally accredited university. These courses must appear on an official transcript. CPA Review Courses may be accepted when taken at a regionally accredited institution and credit is awarded for the courses. Commercial review courses are not acceptable. Residency You must: be a resident of Puerto Rico or have a place of business in Puerto Rico; Note : both first-time and re-exam candidates must meet the residency requirement. be at least 21 years of age at the time of certification; If you are not a U.S. citizen, you must submit statements of intention to become a citizen of the U.S. with your application. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eligibility for Examination You must be a resident, regularly employed, or have a place of business in Rhode Island, and meet one of the following educational requirements: After July 1, 1999 , you will be deemed to have met the education requirement if, as part of the 150 semester hours of education, you have met any one of the following conditions: Earned a graduate degree with a concentration in accounting from a program that is accredited in accounting by an accrediting agency recognized by the Board. Earned a graduate degree from a program that is accredited in business by an accrediting agency recognized by the Board and completed not less than 24 semester hours in accounting at the undergraduate level or 15 semester hours at the graduate level, or an equivalent combination thereof. The accounting courses must include at least: six semester hours in both fundamental accounting and intermediate financial accounting and reporting and not less than three semester hours in each of the following: advanced financial accounting and reporting, tax accounting and auditing. Earned a baccalaureate degree or higher degree at an institution that is accredited by an accrediting agency recognized by the Board and completed not less than 24 semester hours in accounting at the undergraduate or graduate level, and completed not less than 24 semester hours in business courses (other than accounting courses) at the undergraduate or graduate level. The accounting courses must include at least: six semester hours in both fundamental accounting and intermediate financial accounting and reporting and not less than three semester hours in each of the following: advanced financial accounting and reporting, tax accounting and auditing. The business courses must include not less than three semester hours in both business law and economics. The applicant or the education institution from which the baccalaureate or graduate degree is earned must demonstrate to the Board’s satisfaction the integration of business ethics throughout the mandated core curriculum. All educational transcripts and/or international evaluations are required to be submitted to CPA Examination Services. Official school transcripts and/or international evaluations may be submitted by you separately or included with the first-time application. You must meet the education requirements at the time of application. Official school transcripts and/or evaluations must be submitted at the time of application. If you successfully pass the examination, you will not be eligible to receive a certificate until you complete the 150-hour and the experience requirements. Transcripts If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S., you must: Have those credentials evaluated by: NASBA International Evaluation Services Foreign Academic Credentials Service, Inc. Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Course Requirements Commercial CPA review courses are not acceptable. “In progress” transcripts are not acceptable. Courses in auditing or external auditing will satisfy the auditing and professional ethics subject requirements. Courses in internal auditing may only be applied toward general accounting hours. Courses earned at a regionally accredited community college or two-year degree granting institution are acceptable. Correspondence, online courses and CLEP credit are acceptable when you receive credit for the courses at a regionally accredited university. These courses must appear on an official transcript. CPA Review Courses may be accepted when taken at a regionally accredited institution and credit is awarded for the courses. Residency You must be a resident of Rhode Island, be regularly employed in Rhode Island, or have a place of business in Rhode Island. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eligibility for Examination As a first-time applicant, you must: Have a Social Security Number or have a Lawful Permanent Resident Number (Green Card) assigned to you prior to submitting an application; AND Meet the following: have attended an accredited college or university approved by the United States Department of Education; AND have completed a minimum of 120 semester hours credit, which must include: at least 24 semester hours of accounting in courses that are applicable to a baccalaureate, master’s, or doctoral, including a minimum of 6 semester hours at the undergraduate level or three semester credit hours at the graduate level of principles or introductory accounting. at least 24 semester hours of business courses that are applicable to a baccalaureate, master’s, or doctoral degree and that cover some or all of the following subject matter content: business law, economics, management, marketing, finance, business communications, statistics, quantitative methods, data analytics, data interrogation techniques, business data acumen, information systems or technology, business ethics, other areas approved by the board. Note: Licensure education requirements are different than for the examination. See the board’s website for additional information regarding the licensure education requirements. All educational documents, including educational transcripts and foreign evaluations with foreign transcripts, are required to be submitted to CPA Examination Services. You may submit these documents separately or included with the first-time application. All education requirements must be met at the time of application. Transcripts If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended, including a transcript from any school whose credits appear on another transcript as transferred credit. Transfer credits that appear on another transcript are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S., you must: Have your educational credentials evaluated by NASBA International Evaluation Services . Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Course Requirements Commercial CPA review courses are not acceptable. Correspondence and online courses are acceptable when you receive credit for the courses at a regionally accredited university. These courses must appear on an official transcript. CPA Review Courses and/or commercial review courses are not acceptable. Course descriptions of all accounting and business courses taken at academic institutions outside South Carolina not clearly identified by titles, are required. Residency You are not required to be a resident of South Carolina in order to qualify for South Carolina candidacy. The South Carolina Board allows candidates to test outside the United States, but to be eligible to take the exam as a candidate of South Carolina, you must have either a Social Security Number or Resident Alien Number . Also, the Board does not license people in foreign countries. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eligibility for Examination Effective January 27, 2017 In order to sit for the Exam, you must meet the following education requirement: Completed a four-year bachelor’s degree or higher from an accredited institution Completed at least 18 semester or 27 quarter hours of accounting at the upper division excluding credits from internship programs Upper division courses are from the junior, senior and graduate levels. You may submit your application for the Exam while your education is still in progress; however, you must complete your education before you sit for any section of the Exam. No credit for the Exam will be given to you if you fail to successfully complete your education prior to sitting for the Exam. In order to qualify for a license in Tennessee, you will have to meet the following education requirement: Completed a four-year bachelor’s degree or higher from an accredited institution Completed at least 30 semester or 45 quarter hours of accounting including at least 24 semester or 36 quarter hours at the upper division. A maximum of 6 semester or 8 quarter hours from internship programs may be included. Completed at least 24 semester or 36 quarter hours in general business such as: algebra, calculus, statistics, probability business communication business law economics ethics finance management technology/information systems marketing Transcripts If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S., you must: Have your educational credentials evaluated by one of the following: NASBA International Evaluation Services Academic Credentials Evaluation Institute Center for Applied Research, Evaluation and Education/International Evaluation Foreign Academic Credentials Service, Inc. International Consultants of Delaware, Inc. International Education Research Foundation, Inc. Josef Silny &amp;amp; Associates, Inc. Note: You are required to have completed a four-year bachelor’s degree or higher. A three-year degree that is equated to a bachelor’s degree is not acceptable. require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. If required documentation is not received within 45 days of the submission date of your application, your application will be marked as incomplete and will not be processed further. Failure to submit all required supporting documents will result in the denial of your application, forfeiture of your application fee, and the secure destruction of all documents submitted. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Residency There is not a residency requirement for the state of Tennessee. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eligibility for Examination For the Examination, you are required to complete 120 semester (180 quarter) hours and the following: 24 semester hours (36 quarter hours) in upper division and graduate level accounting courses covering the following subjects: financial accounting, auditing, taxation, and management accounting; AND 24 semester hours (36 quarter hours) in non-accounting business or related courses covering each of the following subjects: business law, computers, economics, business ethics, finance, business statistics and quantitative methods, written and oral business communications, business administration such as marketing, production, management, policy or organizational behavior; Note: Lower division business courses are acceptable toward the education requirement for the Examination but may not be accepted toward the education requirement for licensure. For licensure, you are required to complete 150 semester (225 quarter) hours and one of the following: A graduate degree in accounting or taxation from an institution whose business education program is accredited by the American Assembly of Collegiate Schools of Business (AACSB), or the Association of Collegiate Business Schools and Programs (ACBSP). A Master of Business Administration degree from an institution whose business education program is accredited by the American Assembly of Collegiate Schools of Business (AACSB), or the Association of Collegiate Business Schools and Programs (ACBSP) and which includes no less than: 24 semester (36 quarter) hours in upper division accounting courses covering the following subjects: financial accounting, auditing, taxation, and management accounting; OR 15 semester (23 quarter) hours graduate level accounting courses covering the following subjects: financial accounting, auditing, taxation, and management accounting; OR an equivalent combination of graduate and upper division accounting courses covering the subjects of financial accounting, auditing, taxation, and management accounting with one hour of graduate level course work being equivalent to 1.6 hours of upper division course work. A baccalaureate degree in business or accounting from an institution whose business education program is accredited by the American Assembly of Collegiate Schools of Business (AACSB), or the Association of Collegiate Business Schools and Programs (ACBSP) and which includes no less than: 24 semester (36 quarter) hours in upper division or graduate level accounting courses with at least one course in each of the following subjects: financial accounting, auditing, taxation, and management accounting; 30 semester (45 quarter) hours in upper division or graduate level business or accounting courses; A baccalaureate or graduate degree from an institution accredited by a regional accrediting body with no less than: 24 semester (36 quarter) hours in non-accounting business or related courses including each of the following subjects: business law, computers, economics, business ethics, finance, business statistics and quantitative methods, written and oral business communications, business administration such as marketing, production, management, policy or organizational behavior; 24 semester (36 quarter) hours in graduate or upper division accounting courses with a minimum of 2 semester (3 quarter) hours in each of the following subjects: auditing, financial accounting, managerial or cost accounting, systems, taxes; and 30 additional semester (45 quarter) hours in graduate or upper division accounting and business courses. All educational transcripts and/or foreign evaluations are required to be submitted to CPA Examination Services. You may submit official school transcripts and/or foreign evaluations separately or included with first-time application. Transcripts If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S., you must: Have your educational credentials evaluated by: NASBA International Evaluation Services , or any member organization of the National Association of Credential Evaluation Services (NACES). Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Course Requirements Education earned at a regionally accredited community college or two-year degree granting institution is acceptable provided it is transferable to the four year degree granting institution from which you received your degree. Hours taken above the hours required to meet the baccalaureate degree requirement should be taken in courses at the upper division or graduate level in subject areas that would enhance the professional competency, knowledge and skills of a candidate seeking to become a CPA. Every two graduate credit hours earned at accredited institutions recognized by the Board will be considered to be equal to three undergraduate credit hours. Correspondence, CLEP credit, pass/fail grades, CPA Review courses and online courses are acceptable when you receive credit for the courses at a regionally accredited college or university. These courses must appear on an official transcript. Residency There is not a residency requirement for the state of Utah. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eligibility for Examination As a first-time or re-examination applicant, you must: be of good moral character; and have earned a minimum of 120 semester hours of general college level education with 30 semester hours in accounting and business including: 6 semester (9 quarter) hours of financial and/or managerial accounting (excluding Introductory Accounting) 3 semester (4.5 quarter) hours of auditing, 3 semester (4.5 quarter) hours of U.S. taxation, 3 semester (4.5 quarter) hours of U.S. business law, All educational transcripts, Certificate of Enrollments, and/or foreign evaluations are required to be submitted to CPA Examination Services. You may submit official school transcripts, Certificate of Enrollments and/or foreign evaluations separately or included with first-time application. Beginning July 1, 2014: All candidates will be required to have 150 semester hours to be licensed. Additionally, candidates will need to have a fully completed application on file with the Board, including successful completion of the examination, experience and education requirements prior to July 1, 2014, if they wish to gain licensure without 150 semester hours. Transcripts If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you are currently enrolled in college at the time of application, you must: Submit an official transcript from each school you attended. Submit to CPA Examination Services a completed Certificate of Enrollment (COE) form. This form is evidence that you are currently enrolled and that: (1) all courses will be completed no later than 60 days immediately following the actual date your first-time application was received by CPA Examination Services and (2) the final official transcript showing completion of all education, will be submitted to CPA Examination Services no later than 120 days immediately following the date CPA Examination Services received your first-time application. The form must be signed by an authorized official of the college and signed by you. Official school transcripts with “in progress” courses listed are acceptable in lieu of Certificate of Enrollment. The official transcript(s) and Certificate of Enrollment Form may be submitted by you. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. After all educational requirements have been met, you must: Submit to CPA Examination Services the final official transcript showing completion of all education, no later than 120 days immediately following the date CPA Examination Services received your first-time application. The final official transcript must display satisfactory completion of all courses and the degree graduation date. The official transcript may be submitted by you. You are also advised: Examination scores will not be released nor will you be permitted to take future examinations until CPA Examination Services receives the final official transcript. Failure to successfully complete the courses and/or degree requirements as indicated on the Certificate of Enrollment will result in the examination score(s) being voided. If the required final official transcript is not received, the application will be determined to be incomplete and you will not receive examination score(s), will not receive any credit for any Uniform CPA Examination section taken, and will not be permitted to take any future examinations and will be required to reapply as a First-time applicant. If you have completed educational requirements at institutions outside the U.S., you must: Have your educational credentials evaluated by: NASBA International Evaluation Services , or any member organization of the National Association of Credential Evaluation Services (NACES). Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Note : Certified General Accountant applicants from Canada are required to obtain an educational assessment by a foreign evaluation service. Course Requirements Commercial CPA review courses are not acceptable. Education earned at a regionally accredited community college or two-year degree granting institution is acceptable. Official school transcripts with “in progress” courses listed are acceptable in lieu of Certificate of Enrollment. All courses earned must qualify for college credit at a two-year or four-year institution accredited by one of the six regional accrediting bodies (Middle State, New England, North Central, Northwest, Southern, and Western). Correspondence, CLEP credit, CPA Review courses and online courses are acceptable when you receive credit for the courses at a regionally accredited college or university. These courses must appear on an official transcript. Residency There is not a residency requirement for the state of Vermont. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eligibility for Examination To be eligible to take the CPA exam, you must have completed: At least one hundred twenty semester hours (one hundred eighty quarter hours) of college education, including: A baccalaureate or higher degree; and An accounting major or concentration as defined as at least: Twenty-four semester hours (thirty-six quarter hours) or the equivalent in accounting subjects of which at least fifteen semester hours must be at the upper level or graduate level (an upper-level course is defined as a course that frequently carries completion of a lower-level course(s) as a prerequisite); and Twenty-four semester hours (thirty-six quarter hours) or the equivalent in business administration subjects at the undergraduate or graduate level. ** Prior to applying for CPA licensure, you must complete the remaining hours indicated below and submit your official transcripts to CPA Exam Services (CPAES). To qualify for CPA licensure, you must have completed: At least one hundred fifty semester hours (two hundred twenty-five quarter hours) of college education, including: A baccalaureate or higher degree; and An accounting major or concentration as defined as at least: Twenty-four semester hours (thirty-six quarter hours) or the equivalent in accounting subjects of which at least fifteen semester hours must be at the upper level or graduate level (an upper level course is defined as a course that frequently carries completion of a lower level course(s) as a prerequisite); and Twenty-four semester hours (thirty-six quarter hours) or the equivalent in business administration subjects at the undergraduate or graduate level. Transcripts If you have completed the educational requirement at the time of application: You must submit an official transcript(s) Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S.: The Washington Board has approved NASBA International Evaluation Services (NIES) as the recognized evaluation service regarding evaluation of international credentials. Email: [email protected] Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Public Disclosure Act: the Washington State Board of Accountancy is required to comply with the Public Disclosure Act, Chapter 42.56 RCW. This act establishes a strong state mandate in favor of disclosure of public records. As such, the information you submit to the Board, including personal information, may ultimately be subject to disclosure as public record. Course Requirements Credit for correspondence, Pass/fail, internship and online courses are acceptable when you receive credit for the courses at a regionally accredited U.S. university. These courses must appear on an official transcript. The college or university establishes the number of credit hours for the course. An upper level course is defined as a course that requires completion of a lower level course as a prerequisite. Residency There is not a residency requirement for the state of Washington. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Education Requirement for Examination Applicants are eligible to take the Exam after they complete the education requirements according to Wis. Stats. § 442.04(5)(b)4 which states, “A person is not eligible to take the examination under this subdivision unless the person has completed at least 120 semester hours of education at an institution that include course work in accounting and business subjects, as determined by the examining board.” The required accounting and business subjects are detailed in Wisconsin Administrative Code Accy 2.303 and Accy 2.202 . These codes were amended by 2017 Wisconsin Act 88, and became effective on December 2, 2017. Transcripts If you have completed education in the U.S.: Credit for courses completed at institutions located outside the U.S. must be transferred to an accredited bachelor degree-granting institution inside the U.S. in order for those credits to be accepted toward the education requirement under Accy2.202(2)(a)-(e) or Accy 2.202(3)(a)-(b) . You must submit an official transcript from each school you attended. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Course Requirements Credits must be earned at an institution that offers a bachelor’s degree and which is accredited by an agency recognized by the Secretary of the U.S. Department of Education . CPA review courses are not acceptable. Upper division courses means courses usually taken at the junior or senior undergraduate level. All courses must qualify for college-level credit at an accredited institution which offers a bachelor’s degree. Credits from junior and community colleges must be transferred to an accredited institution which offers a bachelor’s degree in order to be accepted toward the education requirements. An official transcript from each institution must be submitted. Correspondence, CLEP credit, pass/fail grades and online courses are acceptable when you receive credit for the courses at a regionally accredited college or university. These courses must appear on an official transcript. Residency There is not a residency requirement for the state of Wisconsin. </t>
   </si>
   <si>
     <t>Values</t>
@@ -1873,6 +1849,661 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">There is not a residency requirement for the state of Pennsylvania. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eligibility for Examination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+As a first-time applicant, you must: 
+Be a resident of Puerto Rico or have a place of business in Puerto Rico. Please note: Initial and re-examination candidates must meet the residency requirement; Be at least 21 years of age at the time of certification; 
+Meet education requirements indicated below: 
+If you completed your education on or after January 1, 2000, you must meet the following education requirement: Earned a baccalaureate degree or higher Completed 150 semester (225 quarter) hours of general college level education Completed 32 semester (48 quarter) hours in accounting subjects Completed 32 semester (48 quarter) hours in accounting and general business such as business law, information systems, economics and finance Earned a minimum 2.0 GPA If you are in your final semester or quarter for completing your baccalaureate degree and 150 semester hours of general education, you can qualify for the examination provided you have completed 32 semester (48 quarter) hours in accounting with a minimum 3.0 GPA prior to submitting your application. You will not be eligible to be licensed until you have completed the full education requirement. If your education is in progress when you submit your examination application, you must submit an official transcript and this Certificate of Enrollment . Once your education has been completed, you will be required to submit an additional official transcript showing all courses and degree(s) as complete. 
+If you completed your education on or before December 31, 1999, you may qualify by one of the following: Earned a baccalaureate degree in Business Administration with a major in accounting from a college or university approved by the Board; OR Earned a baccalaureate degree from a college or university recognized by the Board and completed at least 58 semester (87 quarter) hours in business subjects, of which 32 semester (48 quarter) hours must be in accounting; OR Have a baccalaureate degree from a college or university recognized by the Board and, in the absence of having completed the required number of credit hours in business subjects, provide evidence of completing eight years of public accounting experience. (In its discretion, the Board may substitute two years of accounting experience in the private or government sector or two years of teaching experience at the college or university level for one year of public accounting experience.) 
+All educational requirements must be met at the time of application. All educational transcript(s) and/or international evaluations are required to be submitted to CPA Examination Services directly from the academic institution(s). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experience Requirements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+If you are applying on the basis of experience, you must arrange to have official baccalaureate degree transcripts submitted directly to CPA Examination Services at the time of application. In addition, you must submit a written request with experience information directly to the PR State Board of Accountancy for review and approval. Submit requests to: Junta de Contabilidad P.O. Box 9023271 San Juan, PR 00902-3271. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transcripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+If you have completed all educational requirements at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Your official transcript(s) must be submitted directly from the institution (s). Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you are applying based on experience, you must: Submit to CPA Examination Services the official baccalaureate degree transcripts. The official transcript must be received directly from the academic institution to CPA Examination Services. Submit a written request with experience information directly to the PR State Board of Accountancy for review and approval: Junta de Contabilidad P.O. Box 9023271, San Juan, PR 00902-3271. Please note: If you earned a baccalaureate degree prior to December 31, 1999, you may apply under this option. Photocopies are not acceptable. If you have international education credentials, you must: Have your credentials evaluated by NASBA International Evaluation Services Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Course Requirements Courses earned at a regionally accredited community college or two-year degree granting institution are acceptable. Correspondence, online courses and CLEP credit are acceptable when you receive credit for the courses at a regionally accredited university. These courses must appear on an official transcript. CPA Review Courses may be accepted when taken at a regionally accredited institution and credit is awarded for the courses. Commercial review courses are not acceptable. Residency You must: be a resident of Puerto Rico or have a place of business in Puerto Rico; Note : both first-time and re-exam candidates must meet the residency requirement. be at least 21 years of age at the time of certification; If you are not a U.S. citizen, you must submit statements of intention to become a citizen of the U.S. with your application. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Eligibility for Examination 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">You must be a resident, regularly employed, or have a place of business in Rhode Island, and meet one of the following educational requirements: After July 1, 1999 , you will be deemed to have met the education requirement if, as part of the 150 semester hours of education, you have met any one of the following conditions: 
+Earned a graduate degree with a concentration in accounting from a program that is accredited in accounting by an accrediting agency recognized by the Board. 
+Earned a graduate degree from a program that is accredited in business by an accrediting agency recognized by the Board and completed not less than 24 semester hours in accounting at the undergraduate level or 15 semester hours at the graduate level, or an equivalent combination thereof. The accounting courses must include at least: six semester hours in both fundamental accounting and intermediate financial accounting and reporting and not less than three semester hours in each of the following: advanced financial accounting and reporting, tax accounting and auditing. 
+Earned a baccalaureate degree or higher degree at an institution that is accredited by an accrediting agency recognized by the Board and completed not less than 24 semester hours in accounting at the undergraduate or graduate level, and completed not less than 24 semester hours in business courses (other than accounting courses) at the undergraduate or graduate level. The accounting courses must include at least: six semester hours in both fundamental accounting and intermediate financial accounting and reporting and not less than three semester hours in each of the following: advanced financial accounting and reporting, tax accounting and auditing. The business courses must include not less than three semester hours in both business law and economics. The applicant or the education institution from which the baccalaureate or graduate degree is earned must demonstrate to the Board’s satisfaction the integration of business ethics throughout the mandated core curriculum. 
+All educational transcripts and/or international evaluations are required to be submitted to CPA Examination Services. Official school transcripts and/or international evaluations may be submitted by you separately or included with the first-time application. You must meet the education requirements at the time of application. Official school transcripts and/or evaluations must be submitted at the time of application. If you successfully pass the examination, you will not be eligible to receive a certificate until you complete the 150-hour and the experience requirements. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transcripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S., you must: Have those credentials evaluated by: NASBA International Evaluation Services Foreign Academic Credentials Service, Inc. Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Course Requirements Commercial CPA review courses are not acceptable. “In progress” transcripts are not acceptable. Courses in auditing or external auditing will satisfy the auditing and professional ethics subject requirements. Courses in internal auditing may only be applied toward general accounting hours. Courses earned at a regionally accredited community college or two-year degree granting institution are acceptable. Correspondence, online courses and CLEP credit are acceptable when you receive credit for the courses at a regionally accredited university. These courses must appear on an official transcript. CPA Review Courses may be accepted when taken at a regionally accredited institution and credit is awarded for the courses. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Residency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+You must be a resident of Rhode Island, be regularly employed in Rhode Island, or have a place of business in Rhode Island. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Eligibility for Examination 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">As a first-time applicant, you must: 
+Have a Social Security Number or have a Lawful Permanent Resident Number (Green Card) assigned to you prior to submitting an application; 
+AND Meet the following: have attended an accredited college or university approved by the United States Department of Education; 
+AND have completed a minimum of 120 semester hours credit, which must include: at least 24 semester hours of accounting in courses that are applicable to a baccalaureate, master’s, or doctoral, including a minimum of 6 semester hours at the undergraduate level or three semester credit hours at the graduate level of principles or introductory accounting. at least 24 semester hours of business courses that are applicable to a baccalaureate, master’s, or doctoral degree and that cover some or all of the following subject matter content: business law, economics, management, marketing, finance, business communications, statistics, quantitative methods, data analytics, data interrogation techniques, business data acumen, information systems or technology, business ethics, other areas approved by the board. Note: Licensure education requirements are different than for the examination. See the board’s website for additional information regarding the licensure education requirements. 
+All educational documents, including educational transcripts and foreign evaluations with foreign transcripts, are required to be submitted to CPA Examination Services. You may submit these documents separately or included with the first-time application. 
+All education requirements must be met at the time of application. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transcripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended, including a transcript from any school whose credits appear on another transcript as transferred credit. Transfer credits that appear on another transcript are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S., you must: Have your educational credentials evaluated by NASBA International Evaluation Services . Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Course Requirements Commercial CPA review courses are not acceptable. Correspondence and online courses are acceptable when you receive credit for the courses at a regionally accredited university. These courses must appear on an official transcript. CPA Review Courses and/or commercial review courses are not acceptable. Course descriptions of all accounting and business courses taken at academic institutions outside South Carolina not clearly identified by titles, are required. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Residency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+You are not required to be a resident of South Carolina in order to qualify for South Carolina candidacy. The South Carolina Board allows candidates to test outside the United States, but to be eligible to take the exam as a candidate of South Carolina, you must have either a Social Security Number or Resident Alien Number . Also, the Board does not license people in foreign countries. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eligibility for Examination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Effective January 27, 2017 In order to sit for the Exam, you must meet the following education requirement: 
+Completed a four-year bachelor’s degree or higher from an accredited institution Completed at least 18 semester or 27 quarter hours of accounting at the upper division excluding credits from internship programs Upper division courses are from the junior, senior and graduate levels. You may submit your application for the Exam while your education is still in progress; however, you must complete your education before you sit for any section of the Exam. 
+No credit for the Exam will be given to you if you fail to successfully complete your education prior to sitting for the Exam. 
+In order to qualify for a license in Tennessee, you will have to meet the following education requirement: 
+Completed a four-year bachelor’s degree or higher from an accredited institution Completed at least 30 semester or 45 quarter hours of accounting including at least 24 semester or 36 quarter hours at the upper division. A maximum of 6 semester or 8 quarter hours from internship programs may be included. 
+Completed at least 24 semester or 36 quarter hours in general business such as: algebra, calculus, statistics, probability business communication business law economics ethics finance management technology/information systems marketing 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transcripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S., you must: Have your educational credentials evaluated by one of the following: NASBA International Evaluation Services Academic Credentials Evaluation Institute Center for Applied Research, Evaluation and Education/International Evaluation Foreign Academic Credentials Service, Inc. International Consultants of Delaware, Inc. International Education Research Foundation, Inc. Josef Silny &amp;amp; Associates, Inc. Note: You are required to have completed a four-year bachelor’s degree or higher. A three-year degree that is equated to a bachelor’s degree is not acceptable. require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. If required documentation is not received within 45 days of the submission date of your application, your application will be marked as incomplete and will not be processed further. Failure to submit all required supporting documents will result in the denial of your application, forfeiture of your application fee, and the secure destruction of all documents submitted. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Residency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+There is not a residency requirement for the state of Tennessee. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eligibility for Examination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+For the Examination, you are required to complete 120 semester (180 quarter) hours and the following: 
+24 semester hours (36 quarter hours) in upper division and graduate level accounting courses covering the following subjects: financial accounting, auditing, taxation, and management accounting; 
+AND 24 semester hours (36 quarter hours) in non-accounting business or related courses covering each of the following subjects: business law, computers, economics, business ethics, finance, business statistics and quantitative methods, written and oral business communications, business administration such as marketing, production, management, policy or organizational behavior; Note: Lower division business courses are acceptable toward the education requirement for the Examination but may not be accepted toward the education requirement for licensure. 
+For licensure, you are required to complete 150 semester (225 quarter) hours and one of the following: 
+A graduate degree in accounting or taxation from an institution whose business education program is accredited by the American Assembly of Collegiate Schools of Business (AACSB), or the Association of Collegiate Business Schools and Programs (ACBSP). 
+A Master of Business Administration degree from an institution whose business education program is accredited by the American Assembly of Collegiate Schools of Business (AACSB), or the Association of Collegiate Business Schools and Programs (ACBSP) and which includes no less than: 24 semester (36 quarter) hours in upper division accounting courses covering the following subjects: financial accounting, auditing, taxation, and management accounting; OR 15 semester (23 quarter) hours graduate level accounting courses covering the following subjects: financial accounting, auditing, taxation, and management accounting; OR an equivalent combination of graduate and upper division accounting courses covering the subjects of financial accounting, auditing, taxation, and management accounting with one hour of graduate level course work being equivalent to 1.6 hours of upper division course work. 
+A baccalaureate degree in business or accounting from an institution whose business education program is accredited by the American Assembly of Collegiate Schools of Business (AACSB), or the Association of Collegiate Business Schools and Programs (ACBSP) and which includes no less than: 24 semester (36 quarter) hours in upper division or graduate level accounting courses with at least one course in each of the following subjects: financial accounting, auditing, taxation, and management accounting; 30 semester (45 quarter) hours in upper division or graduate level business or accounting courses; 
+A baccalaureate or graduate degree from an institution accredited by a regional accrediting body with no less than: 24 semester (36 quarter) hours in non-accounting business or related courses including each of the following subjects: business law, computers, economics, business ethics, finance, business statistics and quantitative methods, written and oral business communications, business administration such as marketing, production, management, policy or organizational behavior; 24 semester (36 quarter) hours in graduate or upper division accounting courses with a minimum of 2 semester (3 quarter) hours in each of the following subjects: auditing, financial accounting, managerial or cost accounting, systems, taxes; and 30 additional semester (45 quarter) hours in graduate or upper division accounting and business courses. All educational transcripts and/or foreign evaluations are required to be submitted to CPA Examination Services. You may submit official school transcripts and/or foreign evaluations separately or included with first-time application. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transcripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+If you who have completed the educational requirement at the time of application: You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution. Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal. The degree you have earned must be posted on your official transcript. Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use [email protected] . Electronically delivered transcripts must be submitted directly from the institution (s). Photocopies of transcripts are not official and cannot be accepted. Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. If you have completed educational requirements at institutions outside the U.S., you must: Have your educational credentials evaluated by: NASBA International Evaluation Services , or any member organization of the National Association of Credential Evaluation Services (NACES). Require the agency to evaluate as follows: An equivalency summary that indicates the analogous academic degrees in the U.S. you hold; A credential analysis that specifies: The name of the country; The degree awarded; The year the degree was awarded; and The entity that awarded the degree; A course-by-course listing; and A course credit analysis that includes: Total credits earned toward the degree as stated on transcripts submitted; Total accounting credits earned; and Total business credits earned. Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable. A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided. Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application. If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted. Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination. Course Requirements Education earned at a regionally accredited community college or two-year degree granting institution is acceptable provided it is transferable to the four year degree granting institution from which you received your degree. Hours taken above the hours required to meet the baccalaureate degree requirement should be taken in courses at the upper division or graduate level in subject areas that would enhance the professional competency, knowledge and skills of a candidate seeking to become a CPA. Every two graduate credit hours earned at accredited institutions recognized by the Board will be considered to be equal to three undergraduate credit hours. Correspondence, CLEP credit, pass/fail grades, CPA Review courses and online courses are acceptable when you receive credit for the courses at a regionally accredited college or university. These courses must appear on an official transcript. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Residency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+There is not a residency requirement for the state of Utah. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eligibility for Examination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+As a first-time or re-examination applicant, you must:
+be of good moral character; and
+have earned a minimum of 120 semester hours of general college level education with 30 semester hours in accounting and business including:
+6 semester (9 quarter) hours of financial and/or managerial accounting (excluding Introductory Accounting)
+3 semester (4.5 quarter) hours of auditing,
+3 semester (4.5 quarter) hours of U.S. taxation,
+3 semester (4.5 quarter) hours of U.S. business law,
+All educational transcripts, Certificate of Enrollments, and/or foreign evaluations are required to be submitted to CPA Examination Services. You may submit official school transcripts, Certificate of Enrollments and/or foreign evaluations separately or included with first-time application.
+Beginning July 1, 2014:
+All candidates will be required to have 150 semester hours to be licensed. Additionally, candidates will need to have a fully completed application on file with the Board, including successful completion of the examination, experience and education requirements prior to July 1, 2014, if they wish to gain licensure without 150 semester hours.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transcripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+If you who have completed the educational requirement at the time of application:
+You must submit an official transcript from each school you attended. Transfer credits are not acceptable; you must submit a transcript from each institution.
+Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal.
+The degree you have earned must be posted on your official transcript.
+Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use etranscript@nasba.org. Electronically delivered transcripts must be submitted directly from the institution(s).
+Photocopies of transcripts are not official and cannot be accepted.
+Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply.
+If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted.
+If you are currently enrolled in college at the time of application, you must:
+Submit an official transcript from each school you attended.
+Submit to CPA Examination Services a completed Certificate of Enrollment (COE) form. This form is evidence that you are currently enrolled and that: (1) all courses will be completed no later than 60 days immediately following the actual date your first-time application was received by CPA Examination Services and (2) the final official transcript showing completion of all education, will be submitted to CPA Examination Services no later than 120 days immediately following the date CPA Examination Services received your first-time application. The form must be signed by an authorized official of the college and signed by you.
+Official school transcripts with “in progress” courses listed are acceptable in lieu of Certificate of Enrollment.
+The official transcript(s) and Certificate of Enrollment Form may be submitted by you.
+If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted.
+After all educational requirements have been met, you must:
+Submit to CPA Examination Services the final official transcript showing completion of all education, no later than 120 days immediately following the date CPA Examination Services received your first-time application.
+The final official transcript must display satisfactory completion of all courses and the degree graduation date.
+The official transcript may be submitted by you.
+You are also advised:
+Examination scores will not be released nor will you be permitted to take future examinations until CPA Examination Services receives the final official transcript.
+Failure to successfully complete the courses and/or degree requirements as indicated on the Certificate of Enrollment will result in the examination score(s) being voided.
+If the required final official transcript is not received, the application will be determined to be incomplete and you will not receive examination score(s), will not receive any credit for any Uniform CPA Examination section taken, and will not be permitted to take any future examinations and will be required to reapply as a First-time applicant.
+If you have completed educational requirements at institutions outside the U.S., you must:
+Have your educational credentials evaluated by:
+NASBA International Evaluation Services, or
+any member organization of the National Association of Credential Evaluation Services (NACES).
+Require the agency to evaluate as follows:
+An equivalency summary that indicates the analogous academic degrees in the U.S. you hold;
+A credential analysis that specifies:
+The name of the country;
+The degree awarded;
+The year the degree was awarded; and
+The entity that awarded the degree;
+A course-by-course listing; and
+A course credit analysis that includes:
+Total credits earned toward the degree as stated on transcripts submitted;
+Total accounting credits earned; and
+Total business credits earned.
+Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable.
+A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided.
+Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application.
+If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted.
+Education requirements must be met through academic coursework completed at an accredited institution. Professional training is not acceptable toward these requirements. Coursework completed as part of a Chartered Accountant or similar program is considered professional training and is, therefore, not accepted toward the education requirements for the U.S. Uniform CPA Examination.
+Note: Certified General Accountant applicants from Canada are required to obtain an educational assessment by a foreign evaluation service.
+Course Requirements
+Commercial CPA review courses are not acceptable.
+Education earned at a regionally accredited community college or two-year degree granting institution is acceptable.
+Official school transcripts with “in progress” courses listed are acceptable in lieu of Certificate of Enrollment.
+All courses earned must qualify for college credit at a two-year or four-year institution accredited by one of the six regional accrediting bodies (Middle State, New England, North Central, Northwest, Southern, and Western).
+Correspondence, CLEP credit, CPA Review courses and online courses are acceptable when you receive credit for the courses at a regionally accredited college or university. These courses must appear on an official transcript.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Residency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+There is not a residency requirement for the state of Vermont.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eligibility for Examination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+To be eligible to take the CPA exam, you must have completed:
+At least one hundred twenty semester hours (one hundred eighty quarter hours) of college education, including:
+A baccalaureate or higher degree; and
+An accounting major or concentration as defined as at least:
+Twenty-four semester hours (thirty-six quarter hours) or the equivalent in accounting subjects of which at least fifteen semester hours must be at the upper level or graduate level (an upper-level course is defined as a course that frequently carries completion of a lower-level course(s) as a prerequisite); and
+Twenty-four semester hours (thirty-six quarter hours) or the equivalent in business administration subjects at the undergraduate or graduate level.
+** Prior to applying for CPA licensure, you must complete the remaining hours indicated below and submit your official transcripts to CPA Exam Services (CPAES).
+To qualify for CPA licensure, you must have completed:
+At least one hundred fifty semester hours (two hundred twenty-five quarter hours) of college education, including:
+A baccalaureate or higher degree; and
+An accounting major or concentration as defined as at least:
+Twenty-four semester hours (thirty-six quarter hours) or the equivalent in accounting subjects of which at least fifteen semester hours must be at the upper level or graduate level (an upper level course is defined as a course that frequently carries completion of a lower level course(s) as a prerequisite); and
+Twenty-four semester hours (thirty-six quarter hours) or the equivalent in business administration subjects at the undergraduate or graduate level.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Transcripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+If you have completed the educational requirement at the time of application:
+You must submit an official transcript(s)
+Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal.
+The degree you have earned must be posted on your official transcript.
+Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use etranscript@nasba.org. Electronically delivered transcripts must be submitted directly from the institution(s).
+Photocopies of transcripts are not official and cannot be accepted.
+Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply.
+If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted.
+If you have completed educational requirements at institutions outside the U.S.:
+The Washington Board has approved NASBA International Evaluation Services (NIES) as the recognized evaluation service regarding evaluation of international credentials. Email: nies@nasba.org
+Require the agency to evaluate as follows:
+An equivalency summary that indicates the analogous academic degrees in the U.S. you hold;
+A credential analysis that specifies:
+The name of the country;
+The degree awarded;
+The year the degree was awarded; and
+The entity that awarded the degree;
+A course-by-course listing; and
+A course credit analysis that includes:
+Total credits earned toward the degree as stated on transcripts submitted;
+Total accounting credits earned; and
+Total business credits earned.
+Completed original evaluations must be received by CPAES directly from the evaluation service at the time of application. Photocopies are not acceptable.
+A copy of the international transcript must be included with the report sent to NASBA for each individual evaluation from the evaluation service. The application will be considered incomplete without these documents and the processing of the application will not move forward until transcripts are provided.
+Please Note: If you have not yet applied, education documents received will be kept on file for one year. After that time, these documents will be destroyed, and you will need to resubmit new education documents at the time of application.
+If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted.
+Public Disclosure Act: the Washington State Board of Accountancy is required to comply with the Public Disclosure Act, Chapter 42.56 RCW. This act establishes a strong state mandate in favor of disclosure of public records. As such, the information you submit to the Board, including personal information, may ultimately be subject to disclosure as public record.
+Course Requirements
+Credit for correspondence, Pass/fail, internship and online courses are acceptable when you receive credit for the courses at a regionally accredited U.S. university. These courses must appear on an official transcript. The college or university establishes the number of credit hours for the course.
+An upper level course is defined as a course that requires completion of a lower level course as a prerequisite.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Residency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+There is not a residency requirement for the state of Washington.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Education Requirement for Examination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Applicants are eligible to take the Exam after they complete the education requirements according to Wis. Stats. § 442.04(5)(b)4 which states, “A person is not eligible to take the examination under this subdivision unless the person has completed at least 120 semester hours of education at an institution that include course work in accounting and business subjects, as determined by the examining board.” The required accounting and business subjects are detailed in Wisconsin Administrative Code Accy 2.303 and Accy 2.202. These codes were amended by 2017 Wisconsin Act 88, and became effective on December 2, 2017.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transcripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+If you have completed education in the U.S.:
+Credit for courses completed at institutions located outside the U.S. must be transferred to an accredited bachelor degree-granting institution inside the U.S. in order for those credits to be accepted toward the education requirement under Accy2.202(2)(a)-(e) or Accy 2.202(3)(a)-(b).
+You must submit an official transcript from each school you attended.
+Official transcripts are those that have been issued by the institution’s Registrar’s Office and include the Registrar’s official seal.
+The degree you have earned must be posted on your official transcript.
+Transcripts may be submitted electronically provided they are official. Some schools do not offer this service. Contact your Registrar’s office for additional information. If an email address is required for electronic delivery, use etranscript@nasba.org. Electronically delivered transcripts must be submitted directly from the institution(s).
+Photocopies of transcripts are not official and cannot be accepted.
+Please Note: If you have not yet applied when you submit your transcripts, your education documents will be kept on file for one year. After that time, the documents will be destroyed, and you will need to resubmit new education documents when you apply.
+If you completed courses at a campus located outside the U.S. for a school located in the U.S., the official transcript must be issued by the registrar from the U.S. campus. Transcripts issued by the registrar for the campus located outside the U.S. will not be accepted.
+Course Requirements
+Credits must be earned at an institution that offers a bachelor’s degree and which is accredited by an agency recognized by the Secretary of the U.S. Department of Education.
+CPA review courses are not acceptable.
+Upper division courses means courses usually taken at the junior or senior undergraduate level.
+All courses must qualify for college-level credit at an accredited institution which offers a bachelor’s degree. Credits from junior and community colleges must be transferred to an accredited institution which offers a bachelor’s degree in order to be accepted toward the education requirements. An official transcript from each institution must be submitted.
+Correspondence, CLEP credit, pass/fail grades and online courses are acceptable when you receive credit for the courses at a regionally accredited college or university. These courses must appear on an official transcript.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Residency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+There is not a residency requirement for the state of Wisconsin.</t>
     </r>
   </si>
 </sst>
@@ -2279,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2295,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2306,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="187" x14ac:dyDescent="0.2">
@@ -2317,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2328,10 +2959,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2339,10 +2970,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2350,10 +2981,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2361,10 +2992,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
@@ -2372,10 +3003,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -2383,10 +3014,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="170" x14ac:dyDescent="0.2">
@@ -2394,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
@@ -2405,10 +3036,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2416,10 +3047,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="170" x14ac:dyDescent="0.2">
@@ -2427,10 +3058,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="238" x14ac:dyDescent="0.2">
@@ -2438,10 +3069,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -2449,10 +3080,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2460,10 +3091,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2471,10 +3102,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2482,10 +3113,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="204" x14ac:dyDescent="0.2">
@@ -2493,10 +3124,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="372" x14ac:dyDescent="0.2">
@@ -2504,10 +3135,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2518,7 +3149,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="388" x14ac:dyDescent="0.2">
@@ -2526,10 +3157,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2537,10 +3168,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2548,10 +3179,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="356" x14ac:dyDescent="0.2">
@@ -2559,10 +3190,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2570,10 +3201,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2581,10 +3212,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2592,10 +3223,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2603,10 +3234,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2614,10 +3245,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2625,10 +3256,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2636,10 +3267,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2647,10 +3278,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2658,10 +3289,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2669,10 +3300,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2680,10 +3311,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2691,10 +3322,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2702,10 +3333,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2713,10 +3344,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2724,10 +3355,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2735,10 +3366,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2746,10 +3377,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2757,10 +3388,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2768,21 +3399,21 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2790,21 +3421,21 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="372" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2812,10 +3443,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2823,10 +3454,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -2834,10 +3465,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2845,10 +3476,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2856,21 +3487,21 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="356" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2878,21 +3509,21 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2900,10 +3531,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/state_exam_requirements.xlsx
+++ b/state_exam_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanmcbride/eclipse-workspace/CS602/nasba_webscrape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640B663E-7D94-3647-87AF-2B96F6215A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6978E2D1-AF0A-B743-BAC8-AAB1E462CDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="151">
-  <si>
-    <t>State</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="176">
   <si>
     <t>alabama</t>
   </si>
@@ -191,28 +188,7 @@
     <t>wyoming</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
     <t>See Board Website</t>
-  </si>
-  <si>
-    <t>Eligibility for Examination 
-All first-time applicants must: be of good moral character; be at least 19 years of age; and meet one of the following requirements: 
-1. Degree and Accounting Concentration which includes: a completed bachelor’s degree , or its equivalent, conferred by a regionally accredited college or university; twenty-four semester hours in Accounting; three semester hours in Business Law; three semester hours in Economics; and three semester hours in college level math, statistics and/or computer science degree and Accounting which includes: a completed bachelor’s degree , or its equivalent, conferred by a regionally accredited college or university; and fifteen semester hours in Accounting. 
-2. Degree In-Progress and Accounting which includes: the applicant is within 18 semester hours of completing a bachelor’s degree , or its equivalent, from a regionally accredited college or university; and completion of 15 semester hours in Accounting. 
-3. Degree and Qualifying Experience which includes: a completed bachelor’s degree , or its equivalent, conferred by a regionally accredited college or university; and completion of one year of public accounting experience under the direct supervision of a Certified Public Accountant (CPA). 
-* To qualify based on experience, you must submit a Verification of Supervised Work Experience form and a Verification of Licensure for CPA Supervisor form as part of your application. 
-Please note: Advanced degrees are not accepted in lieu of a bachelor’s degree. You must provide evidence of completion of a bachelor’s degree or its equivalent. All educational transcripts, Certificate of Enrollment Forms, foreign evaluations and/or Verification of Licensure for CPA Supervisor Forms are required to be submitted prior to the submission of the First-time Application to CPAES directly from the academic institution(s)/employer/Board .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eligibility for Examination Please visit the Florida Board of Accountancy website. Residency There is not a residency requirement for the state of Florida. </t>
-  </si>
-  <si>
-    <t>Link</t>
   </si>
   <si>
     <t>https://nasba.org/exams/cpaexam/alabama/index.php</t>
@@ -481,57 +457,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Residency
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> There is not a residency requirement for the jurisdiction of District of Columbia. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eligibility for Examination</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-As a first-time applicant who has not previously taken the examination in accordance with District of Columbia’s requirements, you must: 
-Have completed a baccalaureate degree consisting of not less than 120 semester hours from an accredited U.S. educational institution, including the completion of: 24 semester hours in accounting, to include: 
-3 semester hours in Financial Accounting 
-3 semester hours in Auditing 
-3 semester hours in Cost or Managerial Accounting 
-3 semester hours in U.S. Federal Income Tax 3 semester hours in Commercial or Business Law Education requirements must be met at the time of application. All education transcripts and/or international evaluations are required to be submitted to CPAES. The complete law and rules of the Board may be obtained free online on the District of Columbia Board of Accountancy website. Course Requirements Taxation courses must cover U.S. Federal Tax. Taxation courses focused on another country’s tax will be accepted as an accounting elective. These courses will not be accepted toward the Taxation requirement. Auditing courses must cover internal or external auditing. Other auditing-related subjects are not acceptable toward the Auditing requirement. Commercial and Business Law courses must cover U.S. commercial and business law. Courses focused on another country’s commercial and business law will not be accepted. Credit for CPA Review courses is not acceptable. Credit by examination is not acceptable toward the Accounting or Commercial or Business Law requirements. Credit earned from a junior college is acceptable. Transferred credits, including those transferred from an international school, are acceptable. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -553,76 +478,6 @@
 be of good moral character; 
 and have earned a baccalaureate degree or higher with 20 semester hours or 30 quarter hours in accounting subjects above the introductory level at a four-year accredited college or university that offers a baccalaureate degree as defined by the Board. 
 Educational requirements must be met at the time of application. All educational transcripts and/or foreign evaluations are required to be submitted to CPAES. You may submit official school transcripts and/or foreign evaluations separately or included with your first-time application. The complete law and rules of the Board may be obtained free online on the Georgia Board of Accountancy website . The hours credited for each of the first two courses in accounting subjects completed by an applicant to take the CPA examination or an applicant for a license as a CPA are considered as being at the elementary level. These hours will not be counted toward the minimum hours required to take the CPA examination or to apply for license as a CPA. This shall be the case without respect to the title or number under which the course is designated by the educational institution. Note: In order to be eligible to be licensed by the State of Georgia, candidates must be a U.S. citizen, a legal permanent resident of the U.S., or a qualified alien or non-immigrant under the Federal Immigration and Nationality Act. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> The 150 hour requirement takes effect 12/16/2021 for licensure applications received on/after that date. For more information, please click here . 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Residency Requirement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-There is not a residency requirement for the jurisdiction of Guam. Minimum Age Requirement You must be at least 18 years of age. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Miscellaneous Requirements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-You must be of good moral character. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Education Requirement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-You must meet one of the following: 
-Option 1 Bachelor’s Degree or Higher Completed a baccalaureate degree or higher with a major in accounting from a college or university with accreditation in accounting from AACSB. 
-Option 2 Bachelor’s Degree or Higher Completed a baccalaureate degree or higher with a major in business from a college or university with accreditation in business from AACSB or ACBSP to include: 24 semester hours in accounting courses – excluding principles, including coverage of each of the following subjects: Financial Accounting and Reporting Auditing and Attestation Services Taxation Managerial or Cost Accounting Option 3 Bachelor’s Degree or Higher Completed a U.S. baccalaureate degree (or the equivalent) or higher from an accredited college or university to include: 24 semester hours in accounting courses – excluding principles, including coverage of each of the following subjects: Financial Accounting and Reporting Auditing and Attestation Services Taxation Managerial or Cost Accounting; AND 24 semester hours in business courses, which must include the following courses: 6 semester hours in Economics 3 semester hours in Finance 3 semester hours in Business Law Note: If you are currently enrolled in an academic program as an upper division participant in an accredited undergraduate degree program, or have been accepted by an accredited college or university to its advanced degree program, capable of fulfilling the education requirements within eighteen (18) months of the actual date you sit for your first Exam section, you may still qualify to sit for the Uniform CPA Examination. In conjunction with your application for the Uniform CPA Examination, you must have a Certificate of Enrollment submitted directly to CPA Examination Services. </t>
     </r>
   </si>
   <si>
@@ -2506,13 +2361,398 @@
 There is not a residency requirement for the state of Wisconsin.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Eligibility for Examination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+All first-time applicants must: be of good moral character; be at least 19 years of age; and meet one of the following requirements: 
+1. Degree and Accounting Concentration which includes: a completed bachelor’s degree , or its equivalent, conferred by a regionally accredited college or university; twenty-four semester hours in Accounting; three semester hours in Business Law; three semester hours in Economics; and three semester hours in college level math, statistics and/or computer science degree and Accounting which includes: a completed bachelor’s degree , or its equivalent, conferred by a regionally accredited college or university; and fifteen semester hours in Accounting. 
+2. Degree In-Progress and Accounting which includes: the applicant is within 18 semester hours of completing a bachelor’s degree , or its equivalent, from a regionally accredited college or university; and completion of 15 semester hours in Accounting. 
+3. Degree and Qualifying Experience which includes: a completed bachelor’s degree , or its equivalent, conferred by a regionally accredited college or university; and completion of one year of public accounting experience under the direct supervision of a Certified Public Accountant (CPA). 
+* To qualify based on experience, you must submit a Verification of Supervised Work Experience form and a Verification of Licensure for CPA Supervisor form as part of your application. 
+Please note: Advanced degrees are not accepted in lieu of a bachelor’s degree. You must provide evidence of completion of a bachelor’s degree or its equivalent. All educational transcripts, Certificate of Enrollment Forms, foreign evaluations and/or Verification of Licensure for CPA Supervisor Forms are required to be submitted prior to the submission of the First-time Application to CPAES directly from the academic institution(s)/employer/Board .</t>
+    </r>
+  </si>
+  <si>
+    <t>REQUIRED TO SIT</t>
+  </si>
+  <si>
+    <t>REQUIRED FOR LICENSURE</t>
+  </si>
+  <si>
+    <t>120 Credit Hours</t>
+  </si>
+  <si>
+    <t>150 Credit Hours</t>
+  </si>
+  <si>
+    <t>Earlier</t>
+  </si>
+  <si>
+    <t>Baccalaureate Degree</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>To be eligible to take the Uniform CPA Examination (examination) - or reexamination the applicant must possess the following qualifications:
+(a) The applicant must be a citizen of the United States or, if not a citizen of the United States, a person who is legally present in the United States with appropriate documentation from the federal government who is 19 years of age or older, and who is of good moral character.
+(b) Persons who have sat for the examination prior to January 1, 2016, shall be required to meet the requirements of the Rules that were in effect at the time in which the candidate first sat for the examination.
+(c) Persons who first sit for the examination on or after January 1, 2016, must have completed a total of 120 semester hours or 180 quarter hours of postsecondary education, including a baccalaureate degree at a college or university accredited by a regional accreditation board such as the Southern Association of Colleges and Universities, with a concentration in accounting or the substantial equivalent as determined by the Board. The Board may determine that a candidate has a concentration in accounting or its substantial equivalent upon receiving evidence that the candidate has satisfied any one of the following:
+1. The candidate shall have completed
+(i) at least 24 semester hours or equivalent quarter hours in accounting (excluding introductory courses) at the upper division undergraduate and/or graduate level;
+(ii) at least 24 semester or equivalent quarter hours in business courses (other than accounting courses) at the undergraduate or graduate level from among the following subject areas: economics; legal and social environment of business; business law; marketing; finance; organization, group, and individual behavior; quantitative applications in business; communication skills, and business ethics.
+(d) Professional licenses based on miliary education, training, or service. A member of the Armed Forces or reserves in the United States, the National Guard of any state, the military reserves of any state, or the naval militia of any state (hereinafter referred to collectively as military member) may petition any regionally accredited college or university in accordance with Board rules to accept the education, training, or service completed by the military member to count toward educational credits necessary to receive any degree required for licensure by statute or rule When an applicant has successfully presented satisfactory evidence of said education, training or service, the board will accept and recognize any degree earned by an applicant from a regionally accredited college or university.</t>
+  </si>
+  <si>
+    <t>Experience Hours</t>
+  </si>
+  <si>
+    <t>1 YR</t>
+  </si>
+  <si>
+    <t>Within 18 Credit-Hours &amp; Has 15 Credit-Hours of Accounting Credit</t>
+  </si>
+  <si>
+    <t>2000 HRS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pursuant to A.R.S. § 32-723(A), you must present satisfactory evidence that you have successfully obtained a baccalaureate or a higher degree from an accredited institution or a college or university that maintains standards comparable to those of an accredited institution. The evidence must show the following:
+24 non duplicative semester hours of accounting, including at least 12 non duplicative hours of upper level coursework.
+18 semester hours of related courses which as defined in A.R.S. § 32-701(25) include the following:
+Business administration
+Statistics
+Computer science, information systems or data processing
+Economics
+Finance
+Management
+Business law
+College algebra or more advanced mathematics
+Advanced written communication
+Advanced oral communication
+General ethics
+Marketing
+Other courses that are closely related to the subject of accounting or that are satisfactory to the Board
+Pursuant to A.R.S. § 32-721(A) and (B), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">licensure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>applicants must have 150-hours of education with a baccalaureate or higher degree from an accredited institution or a college or university that maintains standards comparable to those of an accredited institution. The 150 hours must include the following:
+36 non duplicative semester hours of accounting, including at least 30 non duplicative hours of upper level coursework.
+30 semester hours of related courses which as defined in A.R.S. § 32-701(25) include the following:
+Business administration
+Statistics
+Computer science, information systems or data processing
+Economics
+Finance
+Management
+Business law
+College algebra or more advanced mathematics
+Advanced written communication
+Advanced oral communication
+General ethics
+Marketing
+Other courses that are closely related to the subject of accounting or that are satisfactory to the Board</t>
+    </r>
+  </si>
+  <si>
+    <t>Arkansas’s qualifications to sit for the Uniform CPA Examination are simple.  You must have a Bachelor’s Degree, thirty hours upper level Accounting, and thirty hours in Business, other than Accounting.  Accounting and Business classes must be completed with a grade of “C” or above.  
+The Accounting classes must cover the following 6 topics:
+ Financial Accounting (Intermediate Acct.)
+ Management Accounting (Cost Acct.) 
+ Governmental or Not-for-Profit Accounting (Institutional Acct.) 
+ Federal Taxation (Adv. Income Tax or Fundamentals of Taxation)
+ Auditing and Attestation
+ Accounting Information Systems</t>
+  </si>
+  <si>
+    <t>180 Days</t>
+  </si>
+  <si>
+    <t>You may be eligible to sit for the Uniform CPA Examination (CPA Exam) if you are currently enrolled in a college or university and are within 180 days of completing all examination educational requirements. Educational requirements include the conferral of a bachelor’s degree and completion of 24 semester units in both accounting and business-related subjects.
+To apply for early admission to the CPA Exam, you must submit all of the following to the CBA:
+CPA Exam Application
+CPA Exam Application Fee
+Evidence of all finished coursework towards completing the educational requirements
+Certificate of Enrollment Form (COE-1)
+Applications for early entry to the CPA Exam will be approved in instances where documentation has been provided that supports the applicant meets the eligibility requirements within 180 days of application submission at CBA.
+Within 240 days of application submission candidates must send official transcripts to the CBA showing all education requirements have been met.</t>
+  </si>
+  <si>
+    <t>Not accepting applications at this time</t>
+  </si>
+  <si>
+    <t>1800 HRS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Residency
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">There is not a residency requirement for the jurisdiction of District of Columbia. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eligibility for Examination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+As a first-time applicant who has not previously taken the examination in accordance with District of Columbia’s requirements, you must: 
+Have completed a baccalaureate degree consisting of not less than 120 semester hours from an accredited U.S. educational institution, including the completion of: 24 semester hours in accounting, to include: 
+3 semester hours in Financial Accounting 
+3 semester hours in Auditing 
+3 semester hours in Cost or Managerial Accounting 
+3 semester hours in U.S. Federal Income Tax 3 semester hours in Commercial or Business Law Education requirements must be met at the time of application. All education transcripts and/or international evaluations are required to be submitted to CPAES. The complete law and rules of the Board may be obtained free online on the District of Columbia Board of Accountancy website. Course Requirements Taxation courses must cover U.S. Federal Tax. Taxation courses focused on another country’s tax will be accepted as an accounting elective. These courses will not be accepted toward the Taxation requirement. Auditing courses must cover internal or external auditing. Other auditing-related subjects are not acceptable toward the Auditing requirement. Commercial and Business Law courses must cover U.S. commercial and business law. Courses focused on another country’s commercial and business law will not be accepted. Credit for CPA Review courses is not acceptable. Credit by examination is not acceptable toward the Accounting or Commercial or Business Law requirements. Credit earned from a junior college is acceptable. Transferred credits, including those transferred from an international school, are acceptable. </t>
+    </r>
+  </si>
+  <si>
+    <t>Total required hours to sit for the exam:
+120 semester or 180 quarter hours:
+Total upper-division accounting hours required of the 120 semester or 180 quarter hours:
+24 semester or 36 quarter hours to include:
+coverage in auditing and cost accounting,
+three (3) semester or four (4) quarter hours of financial accounting and three (3) semester or four (4) quarter hours of taxation, both of which must be based on USA accounting standards.
+Total upper-division general business hours required of the 120 semester or 180 quarter hours:
+24 semester or 36 quarter hours to include:
+three (3) semester or four (4) quarter hours of business law based on USA Law.
+All accounting courses and at least 21 semester or 32 quarter hours of general business courses must be at the upper-division level.
+All general business courses must be taken at the upper-division level, except for Introductory Macro and Micro Economics, Introductory Statistics, Business Law, Introduction to Computer Information Systems, and any written or oral communication course described in Rule 61H1-27.002(2)(b), F.A.C.
+Upper-division accounting courses in excess of the accounting requirement may be used to meet the general business requirement. Elementary accounting courses are not accepted for accounting or general business credit. Elementary accounting subjects include principles of financial and managerial accounting courses even if they are covered in a three-course sequence, are titled “introductory,” “fundamentals,” or “principles,” and even if they are at the graduate level.
+Other important information:  Staff cannot determine if courses taken meet education requirements via telephone, fax, or email. CPA Board staff determines eligibility by conducting an official evaluation which includes submitting an application, transcripts, and other required documents and paying the required fee.
+No credit will be given for courses that duplicate another course for which the applicant has received credit. Review courses are considered duplicates.
+CLEP courses cannot be used to satisfy the Accounting Education Program requirements or the General Business Education Program. CLEP hours may be used toward the 30 semester hours in excess of the degree.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> The 150 hour requirement takes effect 12/16/2021 for licensure applications received on/after that date. For more information, please click here . 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Residency Requirement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+There is not a residency requirement for the jurisdiction of Guam. Minimum Age Requirement You must be at least 18 years of age. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Miscellaneous Requirements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+You must be of good moral character. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Education Requirement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+You must meet one of the following: 
+Option 1 Bachelor’s Degree or Higher Completed a baccalaureate degree or higher with a major in accounting from a college or university with accreditation in accounting from AACSB. 
+Option 2 Bachelor’s Degree or Higher Completed a baccalaureate degree or higher with a major in business from a college or university with accreditation in business from AACSB or ACBSP to include: 24 semester hours in accounting courses – excluding principles, including coverage of each of the following subjects: Financial Accounting and Reporting Auditing and Attestation Services Taxation Managerial or Cost Accounting 
+Option 3 Bachelor’s Degree or Higher Completed a U.S. baccalaureate degree (or the equivalent) or higher from an accredited college or university to include: 24 semester hours in accounting courses – excluding principles, including coverage of each of the following subjects: Financial Accounting and Reporting Auditing and Attestation Services Taxation Managerial or Cost Accounting; AND 24 semester hours in business courses, which must include the following courses: 6 semester hours in Economics 3 semester hours in Finance 3 semester hours in Business Law Note: If you are currently enrolled in an academic program as an upper division participant in an accredited undergraduate degree program, or have been accepted by an accredited college or university to its advanced degree program, capable of fulfilling the education requirements within eighteen (18) months of the actual date you sit for your first Exam section, you may still qualify to sit for the Uniform CPA Examination. In conjunction with your application for the Uniform CPA Examination, you must have a Certificate of Enrollment submitted directly to CPA Examination Services. </t>
+    </r>
+  </si>
+  <si>
+    <t>4000 HRS</t>
+  </si>
+  <si>
+    <t>Within 120 Days</t>
+  </si>
+  <si>
+    <t>1500 HRS</t>
+  </si>
+  <si>
+    <t>54-208.  EXAMINATION — EDUCATION — QUALIFICATIONS. (1) An applicant for admission to examination as a certified public accountant shall:
+(a)  Be eighteen (18) years of age or older;
+(b)  Be of good character;
+(c)  Be a resident, have been a resident, or intend to immediately become a resident of the state of Idaho;
+(d)  Be approved by the board for admission to the examination; and
+(e)  Provide satisfactory evidence in the form of an official transcript received directly from the school registrar indicating successful completion of a baccalaureate degree or its equivalent, the required credits and courses to be prescribed by the rules of the board.
+Minimum education requirements in Idaho
+All CPA candidates in Idaho must have a bachelor's degree or higher from a regionally accredited college or university. Taking the CPA Exam in Idaho requires 120 semester hours in various course subjects including:
+30 semester (45 quarter) hours in business administration subjects 
+At least 20 semester (30 quarter) hours must be in accounting subjects</t>
+  </si>
+  <si>
+    <t>Fulfilling the following requirements allows you to sit for the CPA Exam:
+Option #1:
+Degree: A graduate degree in accounting conferred by a Board-recognized institution of higher
+education whose accounting program has either AACSB or ACBSP accreditation.
+Total Hours: Completion of 120 semester credit hours. *
+If you have a graduate degree in accounting but it was not earned through an AACSB or ACBSP
+accredited accounting program, you will be evaluated under option #4.
+Option #2:
+Degree: A graduate degree in business conferred by a Board-recognized institution of higher
+education whose business department has either AACSB or ACBSP accreditation.
+OR
+Degree: A graduate degree in accounting conferred by a Board-recognized institution of higher
+education whose business department has either AACSB or ACBSP accreditation.
+AND
+Total Hours: Completion of 120 semester credit hours. *
+Accounting Hours: Completion of 24 semester credit hours in accounting that include courses
+in taxation and audit. **
+If you have a graduate degree in business but it was not earned through an AACSB or ACBSP
+accredited business program, you will be evaluated under option #4.
+Option #4:
+Degree: A baccalaureate degree in any concentration conferred by a Board-recognized
+institution of higher education accredited by and accrediting association recognized by the
+Council for Higher Education Accreditation (CHEA), the U.S. Department of Education (USDE)
+and/or any accreditation organization approved by the Board.</t>
+  </si>
+  <si>
+    <t>2 YRS</t>
+  </si>
+  <si>
+    <t>​​​Exam Requirements
+To sit for the CPA Exam a candidate must meet the following requirements:
+Be 18 years old; of good moral character; has a baccalaureate degree or master's degree conferred by a college or university recognized by the board with a major or concentration in accounting or its equivalent, as defined in administrative regulations promulgated by the board; and all candidates must have a Social Security number.
+Each applicant must provide the Board with a final official transcript that clearly indicates the applicant has earned a baccalaureate or master's degree with a concentration in accounting, and the date the degree was conferred. A concentration in accounting means a minimum of 39 semester hours in business-related subjects, of which at least 27 semester hours consists of accounting courses.  
+Accounting course means the subject matter contained in the course description or catalog issued by a college or university includes auditing, tax, accounting standards, principles, or processes.  Business-related subjects means courses that contain in the course prefix or title an indication that the course subject matter is one of the following: business, finance, marketing, management, economics, computers, statistics, or accounting.
+A transcript from a post-secondary educational institution located outside the United States shall be certified by the National Association of State Boards of Accountancy (NASBA) or a credentialing agency that is a member of the National Association of Credential Evaluation Services, Inc. (NACES)
+For a complete list of all of the requirements please see 201 KAR 1:190.</t>
+  </si>
+  <si>
+    <t>Within 90 Days</t>
+  </si>
+  <si>
+    <t>Within 60 Days</t>
+  </si>
+  <si>
+    <t>Within 180 Days</t>
+  </si>
+  <si>
+    <t>Examinee Qualifications: The CPA examination as required by the Public
+Accountancy Act is to determine minimum competency of an individual
+for licensure purposes. The CPA examination shall test the knowledge and
+skills required for performance as an entry-level certified public
+accountant. The examination shall include the subject areas of accounting
+and auditing and related knowledge and skills as the Board may require. In
+accordance with Rule 2.1. of these Rules and Regulations, an applicant for
+a CPA license must pass the CPA examination in addition to other
+licensure requirements. Candidates for the CPA examination must satisfy
+the following requirements to qualify to sit for the CPA examination as a
+Mississippi candidate:
+(a) Educational Requirement: Candidates who first sit for the CPA
+examination on or after July 1, 2016, must have completed at least 120
+semester hours of college education including a baccalaureate or
+higher degree conferred by an accredited four-year college or
+university or the equivalent acceptable to the Board, with an
+accounting concentration determined by Board rule to be appropriate.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2548,6 +2788,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2557,7 +2804,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2580,28 +2827,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2908,692 +3214,1321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="18" style="14" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="34" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="238">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="187">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="409.6">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="187">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="204">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="9" spans="1:10" ht="408" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="10" spans="1:10" ht="102">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="11" spans="1:10" ht="170">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="12" spans="1:10" ht="221">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="13" spans="1:10" ht="409.6">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="14" spans="1:10" ht="170">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="15" spans="1:10" ht="255">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="153">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="221">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="404">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="51">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="204">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="J20" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="372">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="J21" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="272">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="388">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="J23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="409.6">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="J24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="409.6">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="238" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="J25" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="356">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="J26" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="409.6">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="J27" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="409.6">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="J28" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="289">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="409.6">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="372" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="J30" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="409.6">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="388" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="J31" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="409.6">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="J32" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="409.6">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="J34" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="409.6">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="356" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="J35" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="409.6">
+      <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="J36" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="409.6">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="J37" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="34">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="409.6">
+      <c r="A40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="J40" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="409.6">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="J42" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="409.6">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="J43" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="409.6">
+      <c r="A44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="J44" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="409.6">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="J45" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="409.6">
+      <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="J46" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="34">
+      <c r="A47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="409.6">
+      <c r="A48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="J48" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="17">
+      <c r="A49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="409.6">
+      <c r="A50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="J50" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="409.6">
+      <c r="A51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="J51" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="34">
+      <c r="A52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="17">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="409.6">
+      <c r="A54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="J54" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="17">
+      <c r="A55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="409.6">
+      <c r="A56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="J56" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="5" t="s">
+    <row r="57" spans="1:10" ht="17">
+      <c r="A57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{51D2CB69-293D-9B45-8C1F-308E3CE307F4}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8FFB3DDC-6AEF-F248-8EFA-BCFD9A1836B1}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{C1B6630B-9F76-B744-999B-3DE6156790D5}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{343C65F0-7703-2848-BD66-274FB19E772C}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{78D31C17-049C-144D-ADA1-7D9E3C1B5AC8}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{48E14840-C6B1-B64A-9A7F-BF6BF3F71C39}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{02A1F9A3-FF5A-6D40-B4D6-80B009F11939}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{4EC2295B-DDB1-1542-82C7-2F0914AEE3C6}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{581E34ED-63DC-1940-8401-19C23DD48744}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{60F6B505-A069-EB43-A44B-87EA75394025}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{E1EF44D3-0F2B-8545-A435-9ECAECA21A0F}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{AF2A62FC-BDE1-1F4D-8B67-FB44E3B802A7}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{824FEC1E-F476-814E-B13D-43E9153795C1}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{0553BFA7-57EB-1A47-B5FC-F3384B071C9C}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{22CD4035-9FBB-2E40-AF98-C879C178077D}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{BD38AC62-EAF4-A547-A5E9-69A5316F66FC}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{0D65EDAD-31C1-7743-8A4D-B28457A9E98C}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{08971D19-7A41-064D-9746-7D12B134B136}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{1B2A23B1-085C-ED43-AB92-900E7912CB92}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{014812D3-9870-9340-BD9C-DAB9CB0820C7}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{2350BFEB-9B4E-804E-A5F7-40FC5F6AEEF6}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{2612C7FB-9FA7-344F-89A0-EFEBF60FA0E8}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{242041B1-C50F-6D46-97E3-289C8BDEE777}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{716D656E-F834-2545-8460-2E6B60435B22}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{46CFEF55-D3BC-4D40-BA21-60B9B7C31BB4}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{21FDE850-6186-1D4B-8617-BCEEC4D38C54}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{47F5674D-4E01-3040-8C8F-D12DEF244B67}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{E16EC381-1986-6D49-8F69-CBF45AC1F01B}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{144808EC-48FF-5C46-83FF-99A095EC1B4F}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{F10D6CB4-31D8-D143-9C2F-0B4B9B7AEA74}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{C207CA89-EA20-7D46-AF2A-0E9F1CDB8D6E}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{A7AB319D-708D-0242-A458-0566E4B5C881}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{656FE7FB-C126-CC40-8759-46EECC748201}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{C028042F-FC81-0A4F-BBC0-02C4C2F230E5}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{943B7FF6-225C-4749-82FA-95B1C44055C4}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{A6A9D0DA-C681-834E-99D2-6D1DC63BAA40}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{927883A3-E283-0B40-9AE5-320062084172}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{5EE28A07-D1ED-7C4E-A470-6D08EBC6F518}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{A9016BAB-18D9-834E-B0EE-3FB21AECBF60}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{61833234-11B6-4C46-82DD-48D819CD3FA8}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{A0C9B88C-C05E-AC41-9D97-C5FACFD96DEB}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{92FCA756-E950-814C-AF3A-C551F1C1D06C}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{B97E1A02-BD97-2846-904D-025499FE21B0}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{0007F79E-BA77-C246-8EAA-E5ED1FB1B126}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{DE171213-E9CF-4645-998B-CB7143B65FBC}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{75D3F33C-4F74-EF4D-B02D-BA2354F11C88}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{1F308868-F066-754E-B963-E40C15FBEE7C}"/>
-    <hyperlink ref="C49" r:id="rId48" xr:uid="{EA181A2C-A94C-AB4D-BF9C-27B311ED6B20}"/>
-    <hyperlink ref="C50" r:id="rId49" xr:uid="{D2B2A929-03A7-FE42-AAC9-36C4B2107774}"/>
-    <hyperlink ref="C51" r:id="rId50" xr:uid="{74CBB68E-D4C9-4048-A3C7-FB5497FC0968}"/>
-    <hyperlink ref="C52" r:id="rId51" xr:uid="{489FE3E9-5099-614A-B623-4B1DF88AA01C}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{A2B803AA-DD44-9246-BC93-3E1C7D5CA633}"/>
-    <hyperlink ref="C54" r:id="rId53" xr:uid="{8DAA999E-9FD0-1345-9875-F55E3D31FC48}"/>
-    <hyperlink ref="C55" r:id="rId54" xr:uid="{1CD1F125-5521-7A48-AF5F-E94F2D9712BD}"/>
-    <hyperlink ref="C56" r:id="rId55" xr:uid="{5926C905-37F3-134B-8CAB-A7244A8B9449}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{51D2CB69-293D-9B45-8C1F-308E3CE307F4}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{8FFB3DDC-6AEF-F248-8EFA-BCFD9A1836B1}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{C1B6630B-9F76-B744-999B-3DE6156790D5}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{343C65F0-7703-2848-BD66-274FB19E772C}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{78D31C17-049C-144D-ADA1-7D9E3C1B5AC8}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{48E14840-C6B1-B64A-9A7F-BF6BF3F71C39}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{02A1F9A3-FF5A-6D40-B4D6-80B009F11939}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{4EC2295B-DDB1-1542-82C7-2F0914AEE3C6}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{581E34ED-63DC-1940-8401-19C23DD48744}"/>
+    <hyperlink ref="J12" r:id="rId10" xr:uid="{60F6B505-A069-EB43-A44B-87EA75394025}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{E1EF44D3-0F2B-8545-A435-9ECAECA21A0F}"/>
+    <hyperlink ref="J14" r:id="rId12" xr:uid="{AF2A62FC-BDE1-1F4D-8B67-FB44E3B802A7}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{824FEC1E-F476-814E-B13D-43E9153795C1}"/>
+    <hyperlink ref="J16" r:id="rId14" xr:uid="{0553BFA7-57EB-1A47-B5FC-F3384B071C9C}"/>
+    <hyperlink ref="J17" r:id="rId15" xr:uid="{22CD4035-9FBB-2E40-AF98-C879C178077D}"/>
+    <hyperlink ref="J18" r:id="rId16" xr:uid="{BD38AC62-EAF4-A547-A5E9-69A5316F66FC}"/>
+    <hyperlink ref="J19" r:id="rId17" xr:uid="{0D65EDAD-31C1-7743-8A4D-B28457A9E98C}"/>
+    <hyperlink ref="J20" r:id="rId18" xr:uid="{08971D19-7A41-064D-9746-7D12B134B136}"/>
+    <hyperlink ref="J21" r:id="rId19" xr:uid="{1B2A23B1-085C-ED43-AB92-900E7912CB92}"/>
+    <hyperlink ref="J22" r:id="rId20" xr:uid="{014812D3-9870-9340-BD9C-DAB9CB0820C7}"/>
+    <hyperlink ref="J23" r:id="rId21" xr:uid="{2350BFEB-9B4E-804E-A5F7-40FC5F6AEEF6}"/>
+    <hyperlink ref="J24" r:id="rId22" xr:uid="{2612C7FB-9FA7-344F-89A0-EFEBF60FA0E8}"/>
+    <hyperlink ref="J25" r:id="rId23" xr:uid="{242041B1-C50F-6D46-97E3-289C8BDEE777}"/>
+    <hyperlink ref="J26" r:id="rId24" xr:uid="{716D656E-F834-2545-8460-2E6B60435B22}"/>
+    <hyperlink ref="J27" r:id="rId25" xr:uid="{46CFEF55-D3BC-4D40-BA21-60B9B7C31BB4}"/>
+    <hyperlink ref="J28" r:id="rId26" xr:uid="{21FDE850-6186-1D4B-8617-BCEEC4D38C54}"/>
+    <hyperlink ref="J29" r:id="rId27" xr:uid="{47F5674D-4E01-3040-8C8F-D12DEF244B67}"/>
+    <hyperlink ref="J30" r:id="rId28" xr:uid="{E16EC381-1986-6D49-8F69-CBF45AC1F01B}"/>
+    <hyperlink ref="J31" r:id="rId29" xr:uid="{144808EC-48FF-5C46-83FF-99A095EC1B4F}"/>
+    <hyperlink ref="J32" r:id="rId30" xr:uid="{F10D6CB4-31D8-D143-9C2F-0B4B9B7AEA74}"/>
+    <hyperlink ref="J33" r:id="rId31" xr:uid="{C207CA89-EA20-7D46-AF2A-0E9F1CDB8D6E}"/>
+    <hyperlink ref="J34" r:id="rId32" xr:uid="{A7AB319D-708D-0242-A458-0566E4B5C881}"/>
+    <hyperlink ref="J35" r:id="rId33" xr:uid="{656FE7FB-C126-CC40-8759-46EECC748201}"/>
+    <hyperlink ref="J36" r:id="rId34" xr:uid="{C028042F-FC81-0A4F-BBC0-02C4C2F230E5}"/>
+    <hyperlink ref="J37" r:id="rId35" xr:uid="{943B7FF6-225C-4749-82FA-95B1C44055C4}"/>
+    <hyperlink ref="J38" r:id="rId36" xr:uid="{A6A9D0DA-C681-834E-99D2-6D1DC63BAA40}"/>
+    <hyperlink ref="J39" r:id="rId37" xr:uid="{927883A3-E283-0B40-9AE5-320062084172}"/>
+    <hyperlink ref="J40" r:id="rId38" xr:uid="{5EE28A07-D1ED-7C4E-A470-6D08EBC6F518}"/>
+    <hyperlink ref="J41" r:id="rId39" xr:uid="{A9016BAB-18D9-834E-B0EE-3FB21AECBF60}"/>
+    <hyperlink ref="J42" r:id="rId40" xr:uid="{61833234-11B6-4C46-82DD-48D819CD3FA8}"/>
+    <hyperlink ref="J43" r:id="rId41" xr:uid="{A0C9B88C-C05E-AC41-9D97-C5FACFD96DEB}"/>
+    <hyperlink ref="J44" r:id="rId42" xr:uid="{92FCA756-E950-814C-AF3A-C551F1C1D06C}"/>
+    <hyperlink ref="J45" r:id="rId43" xr:uid="{B97E1A02-BD97-2846-904D-025499FE21B0}"/>
+    <hyperlink ref="J46" r:id="rId44" xr:uid="{0007F79E-BA77-C246-8EAA-E5ED1FB1B126}"/>
+    <hyperlink ref="J47" r:id="rId45" xr:uid="{DE171213-E9CF-4645-998B-CB7143B65FBC}"/>
+    <hyperlink ref="J48" r:id="rId46" xr:uid="{75D3F33C-4F74-EF4D-B02D-BA2354F11C88}"/>
+    <hyperlink ref="J49" r:id="rId47" xr:uid="{1F308868-F066-754E-B963-E40C15FBEE7C}"/>
+    <hyperlink ref="J50" r:id="rId48" xr:uid="{EA181A2C-A94C-AB4D-BF9C-27B311ED6B20}"/>
+    <hyperlink ref="J51" r:id="rId49" xr:uid="{D2B2A929-03A7-FE42-AAC9-36C4B2107774}"/>
+    <hyperlink ref="J52" r:id="rId50" xr:uid="{74CBB68E-D4C9-4048-A3C7-FB5497FC0968}"/>
+    <hyperlink ref="J53" r:id="rId51" xr:uid="{489FE3E9-5099-614A-B623-4B1DF88AA01C}"/>
+    <hyperlink ref="J54" r:id="rId52" xr:uid="{A2B803AA-DD44-9246-BC93-3E1C7D5CA633}"/>
+    <hyperlink ref="J55" r:id="rId53" xr:uid="{8DAA999E-9FD0-1345-9875-F55E3D31FC48}"/>
+    <hyperlink ref="J56" r:id="rId54" xr:uid="{1CD1F125-5521-7A48-AF5F-E94F2D9712BD}"/>
+    <hyperlink ref="J57" r:id="rId55" xr:uid="{5926C905-37F3-134B-8CAB-A7244A8B9449}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3605,7 +4540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
